--- a/Provodnik/_шаблоны/ВСОП_3.xlsx
+++ b/Provodnik/_шаблоны/ВСОП_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="3450"/>
@@ -10,11 +10,6 @@
     <sheet name="ВЧ8" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -54,19 +49,27 @@
     <t>Прибытие на …. вокзал</t>
   </si>
   <si>
-    <t>Список:</t>
+    <t>Список группы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,55 +147,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -203,9 +209,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,14 +480,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
@@ -493,11 +496,12 @@
     <col min="9" max="10" width="18.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="32.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="41" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
+      <c r="A1" s="15"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,9 +535,12 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+    <row r="2" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
@@ -545,12 +552,10 @@
       <c r="J2" s="5"/>
       <c r="K2" s="11"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="12"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="C3" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
